--- a/target/classes/filesinfolder/resultsoutput/results.xlsx
+++ b/target/classes/filesinfolder/resultsoutput/results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
   <si>
     <t>Reg</t>
   </si>
@@ -54,13 +54,13 @@
     <t>RED</t>
   </si>
   <si>
+    <t>BLUE</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t>BLUE</t>
   </si>
 </sst>
 </file>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,40 +414,16 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -460,6 +436,9 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -471,6 +450,9 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -481,6 +463,48 @@
       </c>
       <c r="C4" t="s">
         <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
